--- a/upload/Report_01_2023.xlsx
+++ b/upload/Report_01_2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>PERMOHONAN APPROVED</t>
   </si>
@@ -68,22 +68,76 @@
     <t>adadaw</t>
   </si>
   <si>
+    <t>tidak sesuai dengan nominal</t>
+  </si>
+  <si>
+    <t>2023-01-21 16:59:56</t>
+  </si>
+  <si>
+    <t>Rp.100.000</t>
+  </si>
+  <si>
+    <t>2023-01-08 17:05:32</t>
+  </si>
+  <si>
+    <t>adddd</t>
+  </si>
+  <si>
+    <t>2023-01-21 17:22:30</t>
+  </si>
+  <si>
+    <t>Rp.231.312</t>
+  </si>
+  <si>
+    <t>2023-01-16 08:06:36</t>
+  </si>
+  <si>
+    <t>Rp.1.220.000</t>
+  </si>
+  <si>
+    <t>panci</t>
+  </si>
+  <si>
     <t>Total Nominal</t>
   </si>
   <si>
-    <t>Rp.0</t>
-  </si>
-  <si>
-    <t>2023-01-08 17:05:32</t>
-  </si>
-  <si>
-    <t>Rp.100.000</t>
-  </si>
-  <si>
-    <t>adddd</t>
-  </si>
-  <si>
-    <t>Rp.132.321</t>
+    <t>Rp.331.312</t>
+  </si>
+  <si>
+    <t>2023-01-16 20:47:37</t>
+  </si>
+  <si>
+    <t>Rp.200.000</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>2023-01-18 09:04:12</t>
+  </si>
+  <si>
+    <t>Rp.999.999</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>2023-01-18 15:20:10</t>
+  </si>
+  <si>
+    <t>Rp.23.232</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>2023-01-21 16:09:33</t>
+  </si>
+  <si>
+    <t>Rp.222.222</t>
+  </si>
+  <si>
+    <t>Rp.2.797.774</t>
   </si>
 </sst>
 </file>
@@ -422,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,17 +582,32 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2023</v>
+      </c>
       <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="s">
-        <v>17</v>
+      <c r="T3">
+        <v>2023</v>
       </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -549,13 +618,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -564,24 +633,206 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>2023</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4">
+        <v>2023</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
